--- a/archivos/maxi-od-ACTUALIZADO.xlsx
+++ b/archivos/maxi-od-ACTUALIZADO.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F416"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
           <t>Nuevo Precio</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Última fecha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,14 +479,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1275</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>$ 509,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -509,7 +515,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.818,09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -537,7 +548,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-12-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,12 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$ 2.148,68</t>
+          <t>$ 2.267,68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -593,7 +614,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>$ 1.388,35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-01-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -618,14 +644,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>53170</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 7.497,43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-01-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -653,7 +680,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-12-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -678,14 +710,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>50282</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>445.229</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -713,7 +746,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>864.534</t>
+          <t>$ 6.479,24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -738,14 +776,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>50332</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -773,7 +812,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -801,7 +845,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$ 2.644,54</t>
+          <t>$ 2.961,88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -829,7 +878,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -857,7 +911,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -885,7 +944,12 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3154.974</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -913,7 +977,12 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>$ 2.776,77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -941,7 +1010,12 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2849.816</t>
+          <t>$ 1.730,81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -969,7 +1043,12 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1036.952</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-01-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1000,6 +1079,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1025,7 +1109,12 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1142,12 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1175,12 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1208,12 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1140,6 +1244,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-12-08 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1165,7 +1274,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$ 611,48</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1307,12 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1340,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>$ 1.943,70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1373,12 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$ 537,11</t>
+          <t>$ 592,30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2024-01-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1406,12 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2024-01-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1302,14 +1436,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>51918</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4151.61</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1472,12 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$ 437,93</t>
+          <t>$ 624,69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1505,12 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1538,12 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$ 537,11</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2024-01-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1571,12 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1604,12 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>$ 2.036,27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1637,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>$ 1.758,58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1670,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>$ 2.036,27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1703,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$ 495,79</t>
+          <t>$ 555,28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1736,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$ 4.545,37</t>
+          <t>$ 7.867,68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1769,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$ 776,78</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1802,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$ 776,78</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1835,12 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$ 776,78</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1868,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$ 776,78</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1901,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$ 776,78</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1934,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$ 776,78</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1967,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$ 776,78</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1785,7 +2000,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1813,7 +2033,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1841,7 +2066,12 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 2.128,83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1872,6 +2102,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1897,7 +2132,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 1.203,22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1925,7 +2165,12 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 1.203,22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1953,7 +2198,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 1.203,22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1981,7 +2231,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$ 1.198,26</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2264,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 2.128,83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2297,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 814,45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2330,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>661.918</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2096,6 +2366,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2121,7 +2396,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>$ 1.198,26</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2429,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>$ 2.892,48</t>
+          <t>$ 3.702,38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2462,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>$ 4.297,44</t>
+          <t>$ 5.738,75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2495,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>$ 1.239,58</t>
+          <t>$ 1.425,36</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2528,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>$ 3.057,76</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2561,12 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>$ 3.057,76</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2594,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2627,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2660,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>$ 1.363,55</t>
+          <t>$ 1.527,18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2693,12 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2023-11-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2726,12 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>$ 1.249,49</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2759,12 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2460,6 +2795,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2485,7 +2825,12 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2858,12 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2891,12 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>$ 1.249,49</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2924,12 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>$ 999,58</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2957,12 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>$ 786,69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2990,12 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>$ 388,35</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2653,7 +3023,12 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>$ 388,35</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2681,7 +3056,12 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$ 743,72</t>
+          <t>$ 879,24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2709,7 +3089,12 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>$ 1.399,90</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2737,7 +3122,12 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2765,7 +3155,12 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2793,7 +3188,12 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>$ 5.785,04</t>
+          <t>$ 6.479,24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2821,7 +3221,12 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>$ 1.628,02</t>
+          <t>$ 1.823,38</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2849,7 +3254,12 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$ 2.727,19</t>
+          <t>$ 2.776,77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2877,7 +3287,12 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$ 3.223,06</t>
+          <t>$ 4.165,20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2905,7 +3320,12 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>$ 743,72</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2930,14 +3350,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>51448</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 832,97</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2962,14 +3383,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>1277</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2997,7 +3419,12 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>$ 546,02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3452,12 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>$ 272,64</t>
+          <t>$ 305,36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3485,12 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2023-11-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3518,12 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>$ 760,17</t>
+          <t>$ 1.018,09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3551,12 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$ 760,17</t>
+          <t>$ 1.018,09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3584,12 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>243.79</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3617,12 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3650,12 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>$ 1.611,49</t>
+          <t>$ 1.758,59</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3224,6 +3686,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3252,6 +3719,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3277,7 +3749,12 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$ 2.644,54</t>
+          <t>$ 2.776,77</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2024-01-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3782,12 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3815,12 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>$ 2.148,68</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3358,14 +3845,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>168623</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sin Precio</t>
+          <t>$ 1.388,33</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3396,6 +3884,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3424,6 +3917,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3449,7 +3947,12 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>601.598 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3980,12 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>$ 2.148,68</t>
+          <t>$ 2.313,95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3505,7 +4013,12 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.841,88</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3533,7 +4046,12 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.841,88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3561,7 +4079,12 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.841,88</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3589,7 +4112,12 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.156,94</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3617,7 +4145,12 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 2.036,27</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3645,7 +4178,12 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 2.036,27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3673,7 +4211,12 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>$ 628,02</t>
+          <t>$ 786,69</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3701,7 +4244,12 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>$ 1.198,26</t>
+          <t>$ 1.388,34</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3729,7 +4277,12 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>$ 1.198,26</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3757,7 +4310,12 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.203,22</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3785,7 +4343,12 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 1.203,22</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3813,7 +4376,12 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>$ 1.223,06</t>
+          <t>$ 1.434,62</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3841,7 +4409,12 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>$ 1.277,26</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3866,14 +4439,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>30530</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>7829.886 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3901,7 +4475,12 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>$ 231,32</t>
+          <t>$ 231,31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2023-12-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3929,7 +4508,12 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>$ 2.892,48</t>
+          <t>$ 3.239,58</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3957,7 +4541,12 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3985,7 +4574,12 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>$ 2.892,47</t>
+          <t>$ 3.609,82</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4607,12 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>$ 2.892,47</t>
+          <t>$ 3.609,82</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4640,12 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>$ 2.975,12</t>
+          <t>$ 3.609,82</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4673,12 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2779 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4706,12 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4739,12 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.018,09</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4772,12 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.203,22</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4805,12 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.018,09</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4838,12 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2707.317 - (Oscar David)</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4871,12 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4904,12 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4937,12 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4318,14 +4967,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>100649</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2024-01-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4353,7 +5003,12 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4381,7 +5036,12 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2024-01-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4409,7 +5069,12 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>$ 1.203,20</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2024-01-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4437,7 +5102,12 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2024-01-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4465,7 +5135,12 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>$ 528,84</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4493,7 +5168,12 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>$ 528,84</t>
+          <t>$ 601,56</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4521,7 +5201,12 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4549,7 +5234,12 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 601,56</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4577,7 +5267,12 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4605,7 +5300,12 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4633,7 +5333,12 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.018,09</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4661,7 +5366,12 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4689,7 +5399,12 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>$ 528,84</t>
+          <t>$ 601,56</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4717,7 +5432,12 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>378.455 - (Oscar David)</t>
+          <t>$ 601,56</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4745,7 +5465,12 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>$ 429,67</t>
+          <t>$ 499,74</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4773,7 +5498,12 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4801,7 +5531,12 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4829,7 +5564,12 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>$ 429,67</t>
+          <t>$ 499,74</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4857,7 +5597,12 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>$ 429,67</t>
+          <t>$ 446,20</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4885,7 +5630,12 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 446,20</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4913,7 +5663,12 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>$ 2.099,90</t>
+          <t>$ 2.351,89</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4941,7 +5696,12 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4966,14 +5726,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>169973</t>
-        </is>
-      </c>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5762,12 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>$ 520,58</t>
+          <t>$ 601,56</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5795,12 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>$ 995,38</t>
+          <t>$ 506,45</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5828,12 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>$ 628,01</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5861,12 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>$ 628,01</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5894,12 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5927,12 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>$ 814,39</t>
+          <t>$ 1.013,47</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5172,6 +5963,11 @@
           <t>$ 570,04</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5200,6 +5996,11 @@
           <t>$ 570,04</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5228,6 +6029,11 @@
           <t>$ 479,55</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5253,7 +6059,12 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>$ 579,10</t>
+          <t>$ 648,59</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5281,7 +6092,12 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>$ 633,39</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5309,7 +6125,12 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>$ 542,90</t>
+          <t>$ 533,85</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5337,7 +6158,12 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>$ 560,99</t>
+          <t>$ 689,12</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5365,7 +6191,12 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>$ 705,79</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5393,7 +6224,12 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>$ 827,96</t>
+          <t>$ 962,79</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5421,7 +6257,12 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>$ 827,96</t>
+          <t>$ 962,79</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5449,7 +6290,12 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>$ 660,54</t>
+          <t>$ 760,08</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5477,7 +6323,12 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>$ 1.611,48</t>
+          <t>$ 1.804,86</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5505,7 +6356,12 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>$ 1.388,34</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5533,7 +6389,12 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>$ 1.371,82</t>
+          <t>$ 1.851,14</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5561,7 +6422,12 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>$ 2.561,90</t>
+          <t>$ 3.147,01</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5589,7 +6455,12 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>$ 2.479,25</t>
+          <t>$ 3.239,57</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5617,7 +6488,12 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>$ 3.470,99</t>
+          <t>$ 4.442,87</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5645,7 +6521,12 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>$ 3.470,99</t>
+          <t>$ 4.535,44</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5673,7 +6554,12 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>$ 5.371,81</t>
+          <t>$ 6.942,05</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5701,7 +6587,12 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>$ 3.470,99</t>
+          <t>$ 4.535,44</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5729,7 +6620,12 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>$ 1.652,80</t>
+          <t>$ 2.036,26</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5757,7 +6653,12 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>$ 1.652,80</t>
+          <t>$ 2.036,26</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5785,7 +6686,12 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>$ 1.749,33</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5813,7 +6719,12 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>$ 1.652,80</t>
+          <t>$ 2.036,26</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5841,7 +6752,12 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>$ 446,20</t>
+          <t>$ 481,23</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5869,7 +6785,12 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>$ 1.527,27</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5897,7 +6818,12 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5925,7 +6851,12 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5953,7 +6884,12 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>$ 1.527,27</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5981,7 +6917,12 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>$ 892,48</t>
+          <t>$ 1.055,12</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6950,12 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>$ 892,48</t>
+          <t>$ 1.055,12</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6983,12 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>$ 1.138,41</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6065,7 +7016,12 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>$ 446,20</t>
+          <t>$ 601,55</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6093,7 +7049,12 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>$ 446,20</t>
+          <t>$ 601,55</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6121,7 +7082,12 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6149,7 +7115,12 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>$ 3.223,06</t>
+          <t>$ 3.332,13</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6177,7 +7148,12 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.018,09</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6205,7 +7181,12 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>$ 1.156,94</t>
+          <t>$ 1.295,77</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6233,7 +7214,12 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>$ 1.138,41</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6261,7 +7247,12 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 166,52</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2024-01-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6289,7 +7280,12 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>$ 165,20</t>
+          <t>$ 166,52</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6317,7 +7313,12 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>$ 173,47</t>
+          <t>$ 185,04</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6345,7 +7346,12 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>$ 173,47</t>
+          <t>$ 185,04</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6373,7 +7379,12 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>$ 173,47</t>
+          <t>$ 185,04</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6401,7 +7412,12 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>$ 181,74</t>
+          <t>$ 185,04</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6429,7 +7445,12 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>$ 181,74</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6457,7 +7478,12 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>$ 247,85</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6485,7 +7511,12 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>$ 537,10</t>
+          <t>$ 601,55</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6513,7 +7544,12 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>$ 746,51</t>
+          <t>$ 836,10</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6541,7 +7577,12 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 259,08</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6569,7 +7610,12 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6597,7 +7643,12 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 268,32</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6625,7 +7676,12 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>$ 3.239,58</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6653,7 +7709,12 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>$ 3.239,58</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6681,7 +7742,12 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>$ 3.239,58</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6709,7 +7775,12 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>$ 3.239,58</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6737,7 +7808,12 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>$ 760,25</t>
+          <t>$ 990,32</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6765,7 +7841,12 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>$ 760,25</t>
+          <t>$ 990,32</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6793,7 +7874,12 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>$ 760,25</t>
+          <t>$ 990,32</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6821,7 +7907,12 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>$ 760,25</t>
+          <t>$ 990,32</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6849,7 +7940,12 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>$ 2.727,19</t>
+          <t>$ 3.517,26</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6877,7 +7973,12 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>$ 2.036,27</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6905,7 +8006,12 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>$ 2.036,27</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6933,7 +8039,12 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>$ 1.446,20</t>
+          <t>$ 1.619,74</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6961,7 +8072,12 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6989,7 +8105,12 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7017,7 +8138,12 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>$ 652,81</t>
+          <t>$ 731,15</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7045,7 +8171,12 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>$ 1.249,49</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7073,7 +8204,12 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>$ 1.480,90</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7101,7 +8237,12 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>972.204 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7126,14 +8267,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>53348</t>
-        </is>
-      </c>
+      <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>601.598 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2024-01-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7161,7 +8303,12 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7189,7 +8336,12 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.758,58</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7217,7 +8369,12 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>$ 470,99</t>
+          <t>$ 555,27</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7245,7 +8402,12 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>$ 786,69</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7273,7 +8435,12 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>$ 1.299,90</t>
+          <t>$ 1.455,89</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7301,7 +8468,12 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>$ 793,31</t>
+          <t>$ 888,51</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2023-11-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7329,7 +8501,12 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7357,7 +8534,12 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>$ 1.363,55</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7385,7 +8567,12 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>$ 2.479,25</t>
+          <t>$ 2.776,76</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7413,7 +8600,12 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>$ 1.363,55</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7441,7 +8633,12 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>$ 520,58</t>
+          <t>$ 629,33</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7469,7 +8666,12 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7497,7 +8699,12 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>$ 1.758,58</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>2023-12-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7525,7 +8732,12 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>$ 247,85</t>
+          <t>$ 277,59</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7553,7 +8765,12 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>$ 247,85</t>
+          <t>$ 277,59</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7581,7 +8798,12 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 444,20</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7609,7 +8831,12 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 509,00</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7637,7 +8864,12 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7665,7 +8897,12 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>$ 2.272,64</t>
+          <t>$ 2.545,36</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7693,7 +8930,12 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>$ 2.272,64</t>
+          <t>$ 2.545,36</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2023-10-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7721,7 +8963,12 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>$ 2.272,64</t>
+          <t>$ 2.545,36</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7749,7 +8996,12 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>$ 3.057,76</t>
+          <t>$ 3.332,13</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7777,7 +9029,12 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>$ 1.249,49</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7805,7 +9062,12 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7833,7 +9095,12 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7861,7 +9128,12 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>$ 1.032,97</t>
+          <t>$ 1.249,49</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7889,7 +9161,12 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7917,7 +9194,12 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Sin Precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7945,7 +9227,12 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>$ 2.727,19</t>
+          <t>$ 3.239,58</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7973,7 +9260,12 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>$ 1.363,55</t>
+          <t>$ 1.666,02</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8001,7 +9293,12 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8029,7 +9326,12 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>$ 330,50</t>
+          <t>$ 416,44</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8057,7 +9359,12 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>$ 371,82</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8085,7 +9392,12 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>$ 371,82</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8113,7 +9425,12 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>$ 330,50</t>
+          <t>$ 416,44</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8141,7 +9458,12 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 860,73</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8169,7 +9491,12 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>$ 2.066,03</t>
+          <t>$ 2.313,95</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8197,7 +9524,12 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>$ 2.066,03</t>
+          <t>$ 2.313,95</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8225,7 +9557,12 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>$ 1.266,87</t>
+          <t>$ 1.418,89</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8253,7 +9590,12 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>$ 1.085,88</t>
+          <t>$ 1.216,19</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8281,7 +9623,12 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>$ 1.221,63</t>
+          <t>$ 1.368,23</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8309,7 +9656,12 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8337,7 +9689,12 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>$ 1.388,33</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8365,7 +9722,12 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>$ 437,93</t>
+          <t>$ 499,74</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8393,7 +9755,12 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>$ 1.239,58</t>
+          <t>$ 1.295,77</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8421,7 +9788,12 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>$ 1.138,41</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8449,7 +9821,12 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>$ 396,61</t>
+          <t>$ 444,20</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8477,7 +9854,12 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>$ 509,00</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8505,7 +9887,12 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8530,14 +9917,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
-      </c>
+      <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8565,7 +9953,12 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>$ 2.479,25</t>
+          <t>$ 3.332,13</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8593,7 +9986,12 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>$ 1.388,34</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8621,7 +10019,12 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>$ 425,54</t>
+          <t>$ 546,02</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8649,7 +10052,12 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>$ 2.479,25</t>
+          <t>$ 2.776,76</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8677,7 +10085,12 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>$ 1.758,58</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8705,7 +10118,12 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>$ 425,54</t>
+          <t>$ 546,02</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8733,7 +10151,12 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>$ 814,45</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8761,7 +10184,12 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8789,7 +10217,12 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>$ 879,24</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8817,7 +10250,12 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>$ 1.818,09</t>
+          <t>$ 2.036,26</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8845,7 +10283,12 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>$ 508,18</t>
+          <t>$ 601,56</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8873,7 +10316,12 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>$ 508,18</t>
+          <t>$ 601,56</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8901,7 +10349,12 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8926,14 +10379,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
+      <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8958,14 +10412,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>986</t>
-        </is>
-      </c>
+      <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1535.935 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8993,7 +10448,12 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>$ 462,72</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9018,14 +10478,15 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>446</t>
-        </is>
-      </c>
+      <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9053,7 +10514,12 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9081,7 +10547,12 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9109,7 +10580,12 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>$ 437,93</t>
+          <t>$ 509,00</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9137,7 +10613,12 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 509,00</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9165,7 +10646,12 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>$ 1.349,90</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9193,7 +10679,12 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>$ 1.239,90</t>
+          <t>$ 1.388,69</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9221,7 +10712,12 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>$ 999,90</t>
+          <t>$ 1.119,89</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9249,7 +10745,12 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>$ 1.299,90</t>
+          <t>$ 1.455,89</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9277,7 +10778,12 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>$ 1.049,90</t>
+          <t>$ 1.175,89</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9305,7 +10811,12 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>$ 1.099,90</t>
+          <t>$ 1.231,89</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9333,7 +10844,12 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>$ 1.199,90</t>
+          <t>$ 1.343,89</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9361,7 +10877,12 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.619,74</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9389,7 +10910,12 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9417,7 +10943,12 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>$ 2.644,54</t>
+          <t>$ 2.961,88</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9445,7 +10976,12 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>$ 2.644,54</t>
+          <t>$ 2.961,88</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9473,7 +11009,12 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>1734.742 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9501,7 +11042,12 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>$ 2.892,48</t>
+          <t>$ 2.776,77</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9529,7 +11075,12 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>$ 4.834,62</t>
+          <t>$ 5.414,79</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9557,7 +11108,12 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9585,7 +11141,12 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>$ 710,66</t>
+          <t>$ 888,50</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9613,7 +11174,12 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9641,7 +11207,12 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.730,81</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9669,7 +11240,12 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.730,81</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9697,7 +11273,12 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9725,7 +11306,12 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9753,7 +11339,12 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9781,7 +11372,12 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9809,7 +11405,12 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>$ 1.573,47</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9837,7 +11438,12 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.295,77</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9865,7 +11471,12 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>$ 3.305,70</t>
+          <t>$ 4.813,13</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9893,7 +11504,12 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>$ 859,42</t>
+          <t>$ 962,55</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9921,7 +11537,12 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>$ 859,42</t>
+          <t>$ 962,55</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9949,7 +11570,12 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>$ 661,07</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9977,7 +11603,12 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10005,7 +11636,12 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10033,7 +11669,12 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 1.064,37</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10061,7 +11702,12 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>$ 661,07</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10089,7 +11735,12 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10117,7 +11768,12 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>$ 1.983,38</t>
+          <t>$ 2.313,95</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10145,7 +11801,12 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>$ 694,13</t>
+          <t>$ 925,52</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10173,7 +11834,12 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10201,7 +11867,12 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10229,7 +11900,12 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10257,7 +11933,12 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10285,7 +11966,12 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>$ 661,07</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10313,7 +11999,12 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>$ 727,19</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10341,7 +12032,12 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t>$ 520,58</t>
+          <t>$ 583,05</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10369,7 +12065,12 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 1.018,08</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10397,7 +12098,12 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10425,7 +12131,12 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>$ 520,57</t>
+          <t>$ 638,58</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10453,7 +12164,12 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10481,7 +12197,12 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>$ 925,53</t>
+          <t>$ 1.129,16</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10509,7 +12230,12 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>$ 740,40</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10537,7 +12263,12 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>$ 1.851,15</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10565,7 +12296,12 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>$ 2.066,03</t>
+          <t>$ 2.499,08</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10593,7 +12329,12 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Sin precio (Ni en Maxiconsumo ni en Oscar David)</t>
+          <t>$ 1.388,33</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10621,7 +12362,12 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10649,7 +12395,12 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10677,7 +12428,12 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10705,7 +12461,12 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10733,7 +12494,12 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10761,7 +12527,12 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr">
         <is>
-          <t>$ 2.561,90</t>
+          <t>$ 2.961,88</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10789,7 +12560,12 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>$ 2.231,32</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10817,7 +12593,12 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>$ 2.231,32</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10845,7 +12626,12 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>$ 2.231,32</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10873,7 +12659,12 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>$ 2.024,71</t>
+          <t>$ 2.267,68</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10901,7 +12692,12 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.092,13</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10929,7 +12725,12 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 1.092,13</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10957,7 +12758,12 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>$ 999,58</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10985,7 +12791,12 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>$ 999,58</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11013,7 +12824,12 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>$ 1.156,94</t>
+          <t>$ 1.388,34</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11041,7 +12857,12 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>$ 3.305,70</t>
+          <t>$ 3.239,58</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11069,7 +12890,12 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>$ 1.943,70</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11097,7 +12923,12 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>$ 1.388,34</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11125,7 +12956,12 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr">
         <is>
-          <t>1334.027 - (Oscar David)</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11153,7 +12989,12 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>2024-01-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11181,7 +13022,12 @@
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr">
         <is>
-          <t>$ 2.644,55</t>
+          <t>$ 3.100,73</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11209,7 +13055,12 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>$ 1.018,08</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11237,7 +13088,12 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>$ 1.446,20</t>
+          <t>$ 1.740,07</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11265,7 +13121,12 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>$ 1.018,08</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11293,7 +13154,12 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11321,7 +13187,12 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>$ 1.110,65</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11349,7 +13220,12 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>$ 2.148,68</t>
+          <t>$ 2.684,20</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11381,7 +13257,12 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1298</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11412,6 +13293,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11441,7 +13327,12 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>445.229</t>
+          <t>467.496</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11473,7 +13364,12 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>864.534</t>
+          <t>907.761</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11508,6 +13404,11 @@
           <t>Sin Precio</t>
         </is>
       </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>2024-01-19 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11540,6 +13441,11 @@
           <t>3154.974</t>
         </is>
       </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11572,6 +13478,11 @@
           <t>2849.816</t>
         </is>
       </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11604,6 +13515,11 @@
           <t>1036.952</t>
         </is>
       </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>2024-01-19 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11632,6 +13548,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11660,6 +13581,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11692,6 +13618,11 @@
           <t>Sin Precio</t>
         </is>
       </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11724,6 +13655,11 @@
           <t>4151.61</t>
         </is>
       </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11752,6 +13688,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11784,6 +13725,11 @@
           <t>Sin Precio</t>
         </is>
       </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11812,6 +13758,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11841,7 +13792,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>661.918</t>
+          <t>688.396</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11872,6 +13828,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11904,6 +13865,11 @@
           <t>Sin Precio</t>
         </is>
       </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11936,6 +13902,11 @@
           <t>Sin Precio</t>
         </is>
       </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11964,6 +13935,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11992,6 +13968,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -12024,6 +14005,11 @@
           <t>Sin Precio</t>
         </is>
       </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -12056,6 +14042,11 @@
           <t>243.79</t>
         </is>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -12084,6 +14075,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -12112,6 +14108,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -12144,6 +14145,11 @@
           <t>Sin Precio</t>
         </is>
       </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -12172,6 +14178,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -12198,6 +14209,11 @@
       <c r="F416" t="inlineStr">
         <is>
           <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
